--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385523.775573616</v>
+        <v>1418101.990088815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584662</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075584</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8301592.249421996</v>
+        <v>8301592.249421995</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>210.1515323233967</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>175.5171288722966</v>
       </c>
       <c r="X3" t="n">
-        <v>125.3463683772704</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>141.629655557813</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.57382166136568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>192.9610988726774</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>186.9919489137622</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>230.0428659271803</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>124.1987261892491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3614250987543346</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>207.2118236835818</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.0841977387821</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>91.68674581998047</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.76884470898204</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.47840864636518</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.1381077138932</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>108.4745897976403</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>143.3680272159724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>24.64815776426665</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>54.44663919424258</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>194.3036688314942</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>119.2268911138282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.2185791615406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,7 +2177,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
         <v>67.03858805571426</v>
@@ -2211,13 +2213,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>67.26886741877343</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>50.15718953603389</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>103.9357482121867</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>24.97975510385932</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>209.1581822770987</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>91.6867458199809</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>99.03946631682496</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>86.58819153171414</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.44663919424247</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>179.8684248356465</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>72.08402299981758</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,22 +2636,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>24.1131619115073</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>111.5887103733622</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>263.2986060541522</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>45.09111935667098</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2886,7 +2888,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>96.10285913036417</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2925,16 +2927,16 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.9357482121867</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.812045700447321</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>82.61483212815826</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>186.2352618259423</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3117,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>14.83191020883756</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.9673892710046</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>280.8256822993662</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>209.1581822770989</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>41.75264723147836</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3365,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>120.9673892710046</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.3083647370542</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.03029935583483</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,10 +3520,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>24.97975510385932</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>66.90311870544369</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.38391736390425</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>44.43601816396536</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>153.7950335588239</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>108.9553364853937</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3867,13 +3869,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>30.14164366481007</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>318.2801892474972</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>20.2040922159303</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>78.70529233151306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>540.6514970160482</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>297.2027203719481</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,43 +4418,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>365.7722672925511</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4480,7 +4482,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4547,22 +4549,22 @@
         <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F5" t="n">
         <v>223.6192102101089</v>
       </c>
-      <c r="E5" t="n">
-        <v>223.6192102101089</v>
-      </c>
-      <c r="F5" t="n">
-        <v>216.6737094609055</v>
-      </c>
       <c r="G5" t="n">
-        <v>201.2163988395569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4607,10 +4609,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510.6151429241127</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>510.6151429241127</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>678.8304799441808</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4741,22 +4743,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>208.1618995887604</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4834,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>395.6002882963414</v>
+        <v>731.6906242710602</v>
       </c>
       <c r="C9" t="n">
-        <v>395.6002882963414</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D9" t="n">
-        <v>395.6002882963414</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
         <v>249.0657303232264</v>
@@ -4890,16 +4892,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788936</v>
+        <v>731.6906242710602</v>
       </c>
       <c r="X9" t="n">
-        <v>521.0535470733607</v>
+        <v>731.6906242710602</v>
       </c>
       <c r="Y9" t="n">
-        <v>395.6002882963414</v>
+        <v>731.6906242710602</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C11" t="n">
-        <v>1427.279502709952</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D11" t="n">
-        <v>1427.279502709952</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5039,13 +5041,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.011201133918</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2050.028441765496</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.242019650364</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>999.4678622625117</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="C14" t="n">
-        <v>630.5053453221001</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="D14" t="n">
-        <v>630.5053453221001</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="E14" t="n">
-        <v>630.5053453221001</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5276,52 +5278,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1763.072952499403</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1763.072952499403</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1763.072952499403</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1389.607194238323</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y14" t="n">
-        <v>999.4678622625117</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>447.6797356739879</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>298.7453260127367</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>139.5078710072812</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
         <v>2193.291384540003</v>
@@ -5379,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673871</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3180182963936</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3180182963936</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>140.6009001880908</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>140.6009001880908</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826211</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.3180182963936</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
         <v>762.5916738244549</v>
@@ -5546,19 +5548,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1867.1984047608</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="V17" t="n">
-        <v>1536.135517417229</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="W17" t="n">
-        <v>1183.366862147115</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="X17" t="n">
-        <v>809.9011038860351</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="Y17" t="n">
-        <v>419.7617719102234</v>
+        <v>1757.628112035911</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5579,40 @@
         <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>153.9291369056942</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5695,22 +5697,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U19" t="n">
-        <v>164.2294932568138</v>
+        <v>101.891601688354</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.891601688354</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.891601688354</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.106191590691</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.106191590691</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="D20" t="n">
-        <v>1568.106191590691</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>497.6748089128841</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>167.3261995869254</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5756,10 +5758,10 @@
         <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5786,16 +5788,16 @@
         <v>1941.571949851771</v>
       </c>
       <c r="V20" t="n">
-        <v>1941.571949851771</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W20" t="n">
-        <v>1941.571949851771</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X20" t="n">
-        <v>1568.106191590691</v>
+        <v>884.2746489770059</v>
       </c>
       <c r="Y20" t="n">
-        <v>1568.106191590691</v>
+        <v>884.2746489770059</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>881.8450797407235</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>707.3920504595965</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>558.4576407983452</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
         <v>114.6107419524668</v>
@@ -5832,13 +5834,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
         <v>1637.630816213677</v>
@@ -5859,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V21" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W21" t="n">
-        <v>1441.112009177413</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>1233.26050897188</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>1025.500210206926</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1834.540072901726</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082216</v>
+        <v>502.7829691815762</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082216</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>1834.540072901726</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>630.5053453221001</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C23" t="n">
-        <v>630.5053453221001</v>
+        <v>1975.787305141805</v>
       </c>
       <c r="D23" t="n">
-        <v>630.5053453221001</v>
+        <v>1617.521606535054</v>
       </c>
       <c r="E23" t="n">
-        <v>630.5053453221001</v>
+        <v>1231.73335393681</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5053453221001</v>
+        <v>820.7474491472024</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>402.4756816300872</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>72.12707230412849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6023,16 +6025,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2133.478930893228</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.710275623113</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1407.244517362034</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.105185386222</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E24" t="n">
-        <v>139.5078710072816</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F24" t="n">
-        <v>139.5078710072816</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2244.709957115726</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2045.167259169757</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1816.986794823915</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>2021.45570422889</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>1871.339064816554</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.391887156797</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U25" t="n">
-        <v>2190.391887156797</v>
+        <v>101.8916016883539</v>
       </c>
       <c r="V25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>2190.391887156797</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1939.313389647675</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="C26" t="n">
-        <v>1939.313389647675</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.628112035911</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="E26" t="n">
-        <v>1371.839859437666</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="F26" t="n">
         <v>960.8539546480588</v>
@@ -6230,7 +6232,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991246</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V26" t="n">
-        <v>1939.313389647675</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W26" t="n">
-        <v>1939.313389647675</v>
+        <v>1407.131857353399</v>
       </c>
       <c r="X26" t="n">
-        <v>1939.313389647675</v>
+        <v>1033.666099092319</v>
       </c>
       <c r="Y26" t="n">
-        <v>1939.313389647675</v>
+        <v>1033.666099092319</v>
       </c>
     </row>
     <row r="27">
@@ -6282,19 +6284,19 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>597.7760357515726</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6303,7 +6305,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
         <v>121.6684232076319</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6415,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X28" t="n">
-        <v>318.5874281822333</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1226.812142581546</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="C29" t="n">
-        <v>1226.812142581546</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="D29" t="n">
-        <v>1226.812142581546</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="E29" t="n">
-        <v>1226.812142581546</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>510.7133491675181</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>92.4415816504029</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>92.4415816504029</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1613.411982645668</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W29" t="n">
-        <v>1613.411982645668</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X29" t="n">
-        <v>1613.411982645668</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1613.411982645668</v>
+        <v>897.3131892316399</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>655.5312358795212</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>655.5312358795212</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>496.2937808740657</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>349.7592229009507</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>211.6843370336427</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,25 +6542,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6573,19 +6575,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>210.7322113409051</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>51.75564866431839</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6661,10 +6663,10 @@
         <v>379.8701515943957</v>
       </c>
       <c r="X31" t="n">
-        <v>151.8806006963783</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8806006963783</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1991.981166812103</v>
+        <v>1348.027890673861</v>
       </c>
       <c r="C32" t="n">
-        <v>1623.018649871691</v>
+        <v>979.0653737334494</v>
       </c>
       <c r="D32" t="n">
-        <v>1264.752951264941</v>
+        <v>620.799675126699</v>
       </c>
       <c r="E32" t="n">
-        <v>878.9646986666962</v>
+        <v>235.0114225284547</v>
       </c>
       <c r="F32" t="n">
-        <v>795.5153732847182</v>
+        <v>235.0114225284547</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>235.0114225284547</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6698,13 +6700,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812103</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X32" t="n">
-        <v>1991.981166812103</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y32" t="n">
-        <v>1991.981166812103</v>
+        <v>1734.627730737983</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.1634746939509</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C33" t="n">
-        <v>746.7104454128239</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D33" t="n">
-        <v>597.7760357515726</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E33" t="n">
-        <v>438.5385807461172</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F33" t="n">
-        <v>292.0040227730022</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>61.87672392531863</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6792,10 +6794,10 @@
         <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6806,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.560539990292</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>2222.560539990292</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1994.38007564445</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V33" t="n">
-        <v>1759.227967412707</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W33" t="n">
-        <v>1504.990610684506</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X33" t="n">
-        <v>1297.139110478973</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y33" t="n">
-        <v>1089.378811714019</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="C34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="D34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="E34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6883,25 +6885,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="X34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.68900634031877</v>
+        <v>163.1743251005163</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1991.981166812102</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C35" t="n">
-        <v>1623.018649871691</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="D35" t="n">
-        <v>1623.018649871691</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="E35" t="n">
-        <v>1237.230397273446</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="F35" t="n">
-        <v>826.2444924838387</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>423.5044689939737</v>
       </c>
       <c r="H35" t="n">
         <v>212.2335778049849</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6977,10 +6979,10 @@
         <v>1991.981166812102</v>
       </c>
       <c r="X35" t="n">
-        <v>1991.981166812102</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1991.981166812102</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7041,25 +7043,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>2222.560539990292</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U36" t="n">
-        <v>1994.38007564445</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V36" t="n">
-        <v>1759.227967412707</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W36" t="n">
-        <v>1504.990610684506</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X36" t="n">
-        <v>1297.139110478973</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5160938960355</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
         <v>46.89499644164432</v>
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="C38" t="n">
-        <v>1975.787305141805</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.521606535054</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E38" t="n">
-        <v>1231.73335393681</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>820.7474491472024</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4756816300872</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>72.12707230412849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2277.17091429894</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2093.975801436916</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>1873.993042068494</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="Y38" t="n">
-        <v>2344.749822082216</v>
+        <v>1620.206619953362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.129334229901</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C39" t="n">
-        <v>639.676304948774</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D39" t="n">
-        <v>490.7418952875228</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5044402820673</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F39" t="n">
-        <v>184.9698823089523</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G39" t="n">
         <v>46.89499644164432</v>
@@ -7254,49 +7256,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2315.069097472212</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.069097472212</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2115.526399526243</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U39" t="n">
-        <v>1887.3459351804</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V39" t="n">
-        <v>1652.193826948657</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W39" t="n">
-        <v>1397.956470220456</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X39" t="n">
-        <v>1190.104970014923</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y39" t="n">
-        <v>982.344671249969</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>2156.875614849916</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1987.737674596425</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1828.761111919838</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2303.765562347826</v>
+        <v>491.4892447774382</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.765562347826</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1480.598564696678</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C41" t="n">
-        <v>1111.636047756266</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D41" t="n">
-        <v>753.370349149516</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>367.5820965512717</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>367.5820965512717</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>367.5820965512717</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.1984047608</v>
+        <v>2234.693926642425</v>
       </c>
       <c r="V41" t="n">
-        <v>1867.1984047608</v>
+        <v>1903.631039298854</v>
       </c>
       <c r="W41" t="n">
-        <v>1867.1984047608</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="X41" t="n">
-        <v>1867.1984047608</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y41" t="n">
-        <v>1867.1984047608</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7491,13 +7493,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7515,25 +7517,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.8311793695513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2197.859874584306</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>2028.721934330815</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1869.745371654229</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.479644199791</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E44" t="n">
-        <v>1282.349095302096</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7685,13 +7687,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="X44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.349095302096</v>
+        <v>1261.940921346611</v>
       </c>
     </row>
     <row r="45">
@@ -7707,40 +7709,40 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>368.1794403896317</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>368.1794403896317</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
         <v>2193.291384540003</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991547</v>
       </c>
       <c r="M12" t="n">
-        <v>402.1320537071166</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473438</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082738</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579837</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P33" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>214.8846069991543</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0017366346495</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23495,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>174.71854638868</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>148.1643601551991</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>53.38246657340341</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>46.30948091990953</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1410289771302</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.59573394958733</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>142.7739680963409</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>14.27705323942851</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>135.9764914768102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2630161947946</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>187.6267012407676</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>44.45830443587893</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,10 +24028,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.31460448832672</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24063,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24099,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>165.5317197306518</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>117.089631562594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24175,10 +24177,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>110.5931200167538</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>138.7054404458479</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24263,16 +24265,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>118.5940761930362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.00739118865397</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>60.58175323162524</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>59.84577111485503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24385,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>197.6910041295855</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24446,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>174.8146167850365</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>334.7920227418938</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24497,16 +24499,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>148.5953370768084</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>55.65811072526559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24618,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24655,7 +24657,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>68.86144769834999</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>143.5774396875592</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.5940761930362</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24774,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.860939929045259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24813,16 +24815,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.89623196975063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>134.2662799284442</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>324.2612136135532</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>140.8098614067568</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24968,7 +24970,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25005,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>91.13188885057187</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25044,10 +25046,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>38.65383027744564</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>31.31742727428588</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25096,7 +25098,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>11.51272183651412</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>133.2633675425778</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>117.8869409556002</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>76.57988169550505</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>17.52361544488306</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>122.3907486670964</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>138.7054404458478</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>6.726690934617437</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.45538403358717</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>94.64230746492618</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>37.69782020388202</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>173.2500896738752</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>142.2932214085876</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>108.9366819640815</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>88.59585649421422</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>329.0368765014827</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>68.73977323312569</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634329.8989395932</v>
+        <v>634329.8989395931</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634329.898939593</v>
+        <v>634329.8989395931</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634329.8989395932</v>
+        <v>634329.898939593</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634329.8989395929</v>
+        <v>634329.898939593</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634329.8989395931</v>
+        <v>634329.8989395929</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634329.898939593</v>
+        <v>634329.8989395932</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="F2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="G2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="H2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="I2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="J2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="L2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="M2" t="n">
         <v>317251.3197170584</v>
       </c>
-      <c r="I2" t="n">
-        <v>317251.3197170585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317251.3197170583</v>
-      </c>
-      <c r="K2" t="n">
-        <v>317251.3197170583</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>317251.3197170584</v>
-      </c>
-      <c r="M2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="N2" t="n">
-        <v>317251.3197170586</v>
       </c>
       <c r="O2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="P2" t="n">
-        <v>317251.3197170582</v>
+        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26451,10 +26453,10 @@
         <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
         <v>26710.01986761897</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59346.56577618171</v>
+        <v>59346.56577618176</v>
       </c>
       <c r="C6" t="n">
-        <v>140115.9973077295</v>
+        <v>140115.9973077296</v>
       </c>
       <c r="D6" t="n">
-        <v>140115.9973077296</v>
+        <v>140115.9973077293</v>
       </c>
       <c r="E6" t="n">
-        <v>-97292.76505495975</v>
+        <v>-97292.76505495982</v>
       </c>
       <c r="F6" t="n">
-        <v>248319.5777239929</v>
+        <v>248319.5777239931</v>
       </c>
       <c r="G6" t="n">
         <v>248319.5777239929</v>
       </c>
       <c r="H6" t="n">
-        <v>248319.5777239929</v>
+        <v>248319.577723993</v>
       </c>
       <c r="I6" t="n">
         <v>248319.577723993</v>
       </c>
       <c r="J6" t="n">
-        <v>185259.6351248865</v>
+        <v>185259.6351248868</v>
       </c>
       <c r="K6" t="n">
-        <v>248319.5777239928</v>
+        <v>248319.577723993</v>
       </c>
       <c r="L6" t="n">
-        <v>248319.5777239929</v>
+        <v>248319.577723993</v>
       </c>
       <c r="M6" t="n">
         <v>162301.043903917</v>
       </c>
       <c r="N6" t="n">
-        <v>248319.577723993</v>
+        <v>248319.5777239929</v>
       </c>
       <c r="O6" t="n">
         <v>248319.5777239929</v>
       </c>
       <c r="P6" t="n">
-        <v>248319.5777239927</v>
+        <v>248319.5777239929</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26799,7 +26801,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
         <v>586.1874555205541</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,28 +27423,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>117.6007261467382</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>76.17785428862305</v>
       </c>
       <c r="X3" t="n">
-        <v>80.42661682620709</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27613,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H5" t="n">
-        <v>171.3081882983289</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>91.17093159161226</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>156.1088741159387</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27825,13 +27827,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>213.9149468690341</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>152.482853202005</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27989,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>21.65211723373935</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.48396958805526</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>196.5506615794105</v>
       </c>
     </row>
     <row r="11">
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32704,25 +32706,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K23" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M23" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N23" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O23" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P23" t="n">
         <v>174.5298045144673</v>
@@ -32731,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S23" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I24" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -32807,7 +32809,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R24" t="n">
         <v>40.31853275515171</v>
@@ -32816,10 +32818,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R25" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T25" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>217.3283173608307</v>
       </c>
       <c r="M12" t="n">
-        <v>424.5361405300201</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35507,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35741,7 +35743,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q15" t="n">
         <v>152.98832074971</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L18" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,7 +36211,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
@@ -36364,13 +36366,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N23" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36452,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125847</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P33" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37394,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
-        <v>217.3283173608304</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38111,7 +38113,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q45" t="n">
         <v>152.98832074971</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1418101.990088815</v>
+        <v>1376278.208419808</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>52.42556848774763</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>218.4828584824878</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>175.5171288722966</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
-        <v>202.2946864288972</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.978852203250083</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>141.629655557813</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>192.9610988726774</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>230.0428659271803</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.0339917726843</v>
+        <v>14.83685490770591</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>336.9768192787723</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>163.0070589664428</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.75708778928089</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>249.9639398626337</v>
       </c>
       <c r="E14" t="n">
-        <v>207.2118236835818</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>29.38391736390409</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92.76884470898204</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>101.2952820371726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>298.4383494458249</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1900,13 +1900,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>108.4745897976403</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54.44663919424258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>243.1704079200379</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>119.2268911138282</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2180,7 +2180,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>51.95266212224072</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>67.26886741877343</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>103.9357482121867</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03218749909109</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.97975510385932</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>47.66552214485259</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>99.03946631682496</v>
+        <v>47.57524030408229</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.8378640993551</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>54.44663919424247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>72.08402299981758</v>
+        <v>139.5362353364291</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2690,7 +2690,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X28" t="n">
-        <v>156.8482076906872</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>45.09111935667098</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>2.128413152528355</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>96.10285913036417</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>135.8803768022634</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.812045700447321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>186.2352618259423</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>48.37265738228831</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>125.9687256669875</v>
       </c>
       <c r="H33" t="n">
-        <v>14.83191020883756</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>192.1204999775663</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>347.3669805721897</v>
       </c>
       <c r="H35" t="n">
-        <v>209.1581822770989</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>41.75264723147836</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>162.3083647370542</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>77.39229499604828</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>66.90311870544369</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
@@ -3562,13 +3562,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>36.29588146532114</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>108.9553364853937</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>228.239600640241</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>112.8568289496564</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>30.14164366481007</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>173.289412144823</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>206.3542257198526</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>20.2040922159303</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>91.6867458199809</v>
+        <v>102.4376743759848</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>25.82464390483378</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>149.8134234192865</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>743.3673994677192</v>
       </c>
       <c r="V3" t="n">
-        <v>197.3253049269343</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>310.5857711504598</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>318.1864051113748</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>318.1864051113748</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W8" t="n">
-        <v>485.167420504237</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>485.167420504237</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>731.6906242710602</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C9" t="n">
-        <v>557.2375949899332</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D9" t="n">
-        <v>408.3031853286819</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W9" t="n">
-        <v>731.6906242710602</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X9" t="n">
-        <v>731.6906242710602</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y9" t="n">
-        <v>731.6906242710602</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>1602.321546880725</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5083,10 +5083,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>625.6945070595847</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O12" t="n">
         <v>1887.88481026779</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>482.1811947228484</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>482.1811947228484</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>482.1811947228484</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5205,46 +5205,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581.144731845325</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="C14" t="n">
-        <v>1581.144731845325</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="D14" t="n">
-        <v>1581.144731845325</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
         <v>762.5916738244549</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X14" t="n">
-        <v>1971.284063821136</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.144731845325</v>
+        <v>1514.429749490686</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D16" t="n">
-        <v>457.6519340239745</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E16" t="n">
-        <v>309.7388404415814</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F16" t="n">
-        <v>309.7388404415814</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G16" t="n">
-        <v>140.6009001880908</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>140.6009001880908</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
         <v>46.89499644164432</v>
@@ -5469,19 +5469,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>505.4501067320955</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1757.628112035911</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628112035911</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>899.4747086313353</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>513.686456033091</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>513.686456033091</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H17" t="n">
         <v>212.2335778049849</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U17" t="n">
-        <v>1757.628112035911</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V17" t="n">
-        <v>1757.628112035911</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W17" t="n">
-        <v>1757.628112035911</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X17" t="n">
-        <v>1757.628112035911</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="Y17" t="n">
-        <v>1757.628112035911</v>
+        <v>1257.740407238086</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G19" t="n">
         <v>46.89499644164432</v>
@@ -5700,25 +5700,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>101.891601688354</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>101.891601688354</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>101.891601688354</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>497.6748089128841</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="C20" t="n">
-        <v>497.6748089128841</v>
+        <v>1096.581691223709</v>
       </c>
       <c r="D20" t="n">
-        <v>497.6748089128841</v>
+        <v>1096.581691223709</v>
       </c>
       <c r="E20" t="n">
-        <v>497.6748089128841</v>
+        <v>710.7934386254644</v>
       </c>
       <c r="F20" t="n">
-        <v>497.6748089128841</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>497.6748089128841</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>167.3261995869254</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>1941.571949851771</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V20" t="n">
-        <v>1610.5090625082</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W20" t="n">
-        <v>1257.740407238086</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="X20" t="n">
-        <v>884.2746489770059</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="Y20" t="n">
-        <v>884.2746489770059</v>
+        <v>1465.54420816412</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E21" t="n">
         <v>506.2543262569397</v>
@@ -5834,19 +5834,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>2131.03883049566</v>
       </c>
       <c r="U21" t="n">
-        <v>1894.892063851584</v>
+        <v>1902.858366149817</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1667.706257918074</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1413.468901189873</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1205.61740098434</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5937,22 +5937,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>502.7829691815762</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>274.8845473396617</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y22" t="n">
         <v>46.89499644164432</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2344.749822082216</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C23" t="n">
-        <v>1975.787305141805</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.521606535054</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E23" t="n">
-        <v>1231.73335393681</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
-        <v>820.7474491472024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4756816300872</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>72.12707230412849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6016,25 +6016,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.602830016709</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.602830016709</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2296.602830016709</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1965.539942673138</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.749822082216</v>
+        <v>1965.539942673138</v>
       </c>
       <c r="X23" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.074184412058</v>
       </c>
       <c r="Y23" t="n">
-        <v>2344.749822082216</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>743.7701938734157</v>
+        <v>735.3105217676085</v>
       </c>
       <c r="C24" t="n">
-        <v>569.3171645922887</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D24" t="n">
-        <v>420.3827549310374</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E24" t="n">
-        <v>261.1452999255819</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6107419524668</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G24" t="n">
         <v>114.6107419524668</v>
@@ -6068,22 +6068,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
         <v>2193.291384540003</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2244.709957115726</v>
+        <v>2236.250285009919</v>
       </c>
       <c r="T24" t="n">
-        <v>2045.167259169757</v>
+        <v>2036.70758706395</v>
       </c>
       <c r="U24" t="n">
-        <v>1816.986794823915</v>
+        <v>1808.527122718107</v>
       </c>
       <c r="V24" t="n">
-        <v>1581.834686592172</v>
+        <v>1573.375014486365</v>
       </c>
       <c r="W24" t="n">
-        <v>1327.59732986397</v>
+        <v>1319.137657758163</v>
       </c>
       <c r="X24" t="n">
-        <v>1119.745829658438</v>
+        <v>1111.28615755263</v>
       </c>
       <c r="Y24" t="n">
-        <v>911.9855308934837</v>
+        <v>903.5258587876765</v>
       </c>
     </row>
     <row r="25">
@@ -6153,34 +6153,34 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424308</v>
+        <v>590.7606299016081</v>
       </c>
       <c r="U25" t="n">
-        <v>101.8916016883539</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V25" t="n">
         <v>46.89499644164432</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1033.666099092319</v>
+        <v>942.5914582393195</v>
       </c>
       <c r="C26" t="n">
-        <v>1033.666099092319</v>
+        <v>573.6289412989079</v>
       </c>
       <c r="D26" t="n">
-        <v>1033.666099092319</v>
+        <v>573.6289412989079</v>
       </c>
       <c r="E26" t="n">
-        <v>1033.666099092319</v>
+        <v>187.8406887006636</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U26" t="n">
-        <v>2090.963399967084</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V26" t="n">
-        <v>1759.900512623513</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W26" t="n">
-        <v>1407.131857353399</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X26" t="n">
-        <v>1033.666099092319</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="Y26" t="n">
-        <v>1033.666099092319</v>
+        <v>1329.191298303441</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E27" t="n">
         <v>193.4295544147594</v>
@@ -6305,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6338,19 +6338,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="28">
@@ -6417,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>449.3360404154141</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>228.543461271884</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>510.7133491675181</v>
+        <v>1192.394979505922</v>
       </c>
       <c r="C29" t="n">
-        <v>510.7133491675181</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D29" t="n">
-        <v>510.7133491675181</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E29" t="n">
-        <v>510.7133491675181</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F29" t="n">
-        <v>510.7133491675181</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>92.4415816504029</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>92.4415816504029</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6499,16 +6499,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>1660.918279468531</v>
+        <v>2342.599909806935</v>
       </c>
       <c r="X29" t="n">
-        <v>1287.452521207452</v>
+        <v>1969.134151545855</v>
       </c>
       <c r="Y29" t="n">
-        <v>897.3131892316399</v>
+        <v>1578.994819570043</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>829.9842651606482</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>655.5312358795212</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>655.5312358795212</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>496.2937808740657</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F30" t="n">
-        <v>349.7592229009507</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>211.6843370336427</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6584,10 +6584,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.95990094567</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.1996021807163</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.8701515943957</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C31" t="n">
-        <v>379.8701515943957</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="D31" t="n">
-        <v>379.8701515943957</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8701515943957</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="F31" t="n">
-        <v>379.8701515943957</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="G31" t="n">
-        <v>210.7322113409051</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>51.75564866431839</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6651,22 +6651,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943957</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943957</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X31" t="n">
-        <v>379.8701515943957</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.8701515943957</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1348.027890673861</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="C32" t="n">
-        <v>979.0653737334494</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="D32" t="n">
-        <v>620.799675126699</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E32" t="n">
-        <v>235.0114225284547</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F32" t="n">
-        <v>235.0114225284547</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G32" t="n">
-        <v>235.0114225284547</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6700,16 +6700,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713795</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713795</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="W32" t="n">
-        <v>2124.767062713795</v>
+        <v>2295.888551999097</v>
       </c>
       <c r="X32" t="n">
-        <v>2124.767062713795</v>
+        <v>1922.422793738017</v>
       </c>
       <c r="Y32" t="n">
-        <v>1734.627730737983</v>
+        <v>1532.283461762205</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>508.1234744593334</v>
       </c>
       <c r="D33" t="n">
-        <v>359.1890647980821</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E33" t="n">
-        <v>199.9516097926266</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F33" t="n">
-        <v>199.9516097926266</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="G33" t="n">
-        <v>61.87672392531863</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D34" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
         <v>46.89499644164432</v>
@@ -6888,22 +6888,22 @@
         <v>391.0727469424309</v>
       </c>
       <c r="T34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="U34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="V34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="W34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="X34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.1743251005163</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>841.7762365110889</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C35" t="n">
-        <v>841.7762365110889</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D35" t="n">
-        <v>841.7762365110889</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E35" t="n">
-        <v>841.7762365110889</v>
+        <v>808.7566391829587</v>
       </c>
       <c r="F35" t="n">
-        <v>841.7762365110889</v>
+        <v>397.7707343933511</v>
       </c>
       <c r="G35" t="n">
-        <v>423.5044689939737</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
         <v>762.5916738244551</v>
@@ -6976,13 +6976,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.515408551022</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1228.376076575211</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>882.1192016864297</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>707.6661724053027</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
         <v>2193.291384540003</v>
@@ -7040,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>1955.335802636929</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1720.183694405186</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.946337676985</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1258.094837471452</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>1050.334538706498</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.8311793695513</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1620.206619953362</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.206619953362</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7174,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2277.17091429894</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2093.975801436916</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1873.993042068494</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U38" t="n">
-        <v>1620.206619953362</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V38" t="n">
-        <v>1620.206619953362</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W38" t="n">
-        <v>1620.206619953362</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X38" t="n">
-        <v>1620.206619953362</v>
+        <v>813.6833397238972</v>
       </c>
       <c r="Y38" t="n">
-        <v>1620.206619953362</v>
+        <v>813.6833397238972</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>676.0544483625931</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C39" t="n">
-        <v>501.6014190814661</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D39" t="n">
-        <v>352.6670094202149</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E39" t="n">
-        <v>193.4295544147594</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G39" t="n">
         <v>46.89499644164432</v>
@@ -7256,13 +7256,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
         <v>1486.172378671464</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1977.451513658935</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1749.271049313092</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1514.118941081349</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1259.881584353148</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>1052.030084147615</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>844.2697853826612</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="G40" t="n">
         <v>46.89499644164432</v>
@@ -7356,28 +7356,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>90.597877284216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.1232119888066</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C41" t="n">
-        <v>405.1606950483948</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7414,10 +7414,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7438,25 +7438,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U41" t="n">
-        <v>2234.693926642425</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V41" t="n">
-        <v>1903.631039298854</v>
+        <v>1457.240476584879</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.86238402874</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.86238402874</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="Y41" t="n">
-        <v>1160.723052052928</v>
+        <v>1104.471821314765</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7493,22 +7493,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F43" t="n">
-        <v>2197.859874584306</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>2028.721934330815</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1869.745371654229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y43" t="n">
-        <v>2344.749822082216</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1261.940921346611</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="C44" t="n">
-        <v>1261.940921346611</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D44" t="n">
-        <v>1261.940921346611</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E44" t="n">
-        <v>876.152668748367</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F44" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7648,13 +7648,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W44" t="n">
-        <v>1261.940921346611</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.940921346611</v>
+        <v>1003.953985122953</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.940921346611</v>
+        <v>1003.953985122953</v>
       </c>
     </row>
     <row r="45">
@@ -7709,16 +7709,16 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F45" t="n">
-        <v>139.5078710072816</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="G45" t="n">
-        <v>139.5078710072816</v>
+        <v>150.3673948012249</v>
       </c>
       <c r="H45" t="n">
         <v>46.89499644164432</v>
@@ -7727,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C46" t="n">
-        <v>198.221686764156</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D46" t="n">
-        <v>198.221686764156</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="E46" t="n">
-        <v>198.221686764156</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F46" t="n">
-        <v>198.221686764156</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G46" t="n">
-        <v>198.221686764156</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>214.8846069991547</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>390.8949017221348</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9014378473438</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O33" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9014378473433</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17.70622234191063</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3.52612468342457</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>96.07489239265641</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>104.7191017580493</v>
       </c>
       <c r="E14" t="n">
-        <v>174.71854638868</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.65467069181017</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>46.30948091990953</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -23709,13 +23709,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>184.9940517643635</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>115.650700396119</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>142.7739680963409</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>11.90120006817365</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>52.6522033139492</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
@@ -23940,13 +23940,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2630161947946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>163.7056378216735</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>44.45830443587893</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>145.5946088442689</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>110.5931200167538</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5524658530037</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>138.7054404458479</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>133.6976395885513</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
@@ -24265,16 +24265,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.58175323162524</v>
+        <v>112.0459792443679</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>197.6910041295855</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>334.7920227418938</v>
+        <v>267.3398104052823</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,19 +24657,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X28" t="n">
-        <v>68.86144769834999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>118.5940761930362</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>347.1125555648846</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>9.860939929045259</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.56618404869221</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>134.2662799284442</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24891,13 +24891,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>140.8098614067568</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>25.25715225777282</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>10.72541134164737</v>
       </c>
       <c r="H33" t="n">
-        <v>91.13188885057187</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>31.31742727428588</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>33.49893764592909</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>66.72206926975423</v>
       </c>
       <c r="H35" t="n">
-        <v>117.8869409556002</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.52361544488306</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25368,16 +25368,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>305.3415466674323</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.726690934617437</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>130.2373021845462</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>124.1807088168097</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
@@ -25596,16 +25596,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>142.2932214085876</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>99.51265782989393</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>53.67635470021091</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>108.9366819640815</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>52.33002547867235</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>158.918666051155</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>329.0368765014827</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>14.27705323942853</v>
+        <v>3.526124683424641</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>122.7908291133786</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>7.573373630534348</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634329.8989395931</v>
+        <v>634329.8989395932</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634329.898939593</v>
+        <v>634329.8989395929</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634329.898939593</v>
+        <v>634329.8989395929</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634329.8989395929</v>
+        <v>634329.898939593</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634329.8989395932</v>
+        <v>634329.898939593</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>317251.3197170584</v>
@@ -26328,31 +26328,31 @@
         <v>317251.3197170586</v>
       </c>
       <c r="G2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="H2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="I2" t="n">
         <v>317251.3197170584</v>
       </c>
-      <c r="H2" t="n">
-        <v>317251.3197170585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>317251.3197170586</v>
-      </c>
       <c r="J2" t="n">
-        <v>317251.3197170586</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="K2" t="n">
         <v>317251.3197170585</v>
       </c>
       <c r="L2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="M2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="N2" t="n">
         <v>317251.3197170585</v>
       </c>
-      <c r="M2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>317251.3197170584</v>
-      </c>
       <c r="O2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="P2" t="n">
         <v>317251.3197170584</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007596</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59346.56577618176</v>
+        <v>59346.56577618188</v>
       </c>
       <c r="C6" t="n">
+        <v>140115.9973077294</v>
+      </c>
+      <c r="D6" t="n">
         <v>140115.9973077296</v>
       </c>
-      <c r="D6" t="n">
-        <v>140115.9973077293</v>
-      </c>
       <c r="E6" t="n">
-        <v>-97292.76505495982</v>
+        <v>-104600.0043133561</v>
       </c>
       <c r="F6" t="n">
-        <v>248319.5777239931</v>
+        <v>241012.3384655967</v>
       </c>
       <c r="G6" t="n">
-        <v>248319.5777239929</v>
+        <v>241012.3384655967</v>
       </c>
       <c r="H6" t="n">
-        <v>248319.577723993</v>
+        <v>241012.3384655964</v>
       </c>
       <c r="I6" t="n">
-        <v>248319.577723993</v>
+        <v>241012.3384655966</v>
       </c>
       <c r="J6" t="n">
-        <v>185259.6351248868</v>
+        <v>177952.3958664904</v>
       </c>
       <c r="K6" t="n">
-        <v>248319.577723993</v>
+        <v>241012.3384655967</v>
       </c>
       <c r="L6" t="n">
-        <v>248319.577723993</v>
+        <v>241012.3384655966</v>
       </c>
       <c r="M6" t="n">
-        <v>162301.043903917</v>
+        <v>154993.8046455207</v>
       </c>
       <c r="N6" t="n">
-        <v>248319.5777239929</v>
+        <v>241012.3384655967</v>
       </c>
       <c r="O6" t="n">
-        <v>248319.5777239929</v>
+        <v>241012.3384655967</v>
       </c>
       <c r="P6" t="n">
-        <v>248319.5777239929</v>
+        <v>241012.3384655965</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428948</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8771690273874</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>287.4893848675705</v>
       </c>
     </row>
     <row r="3">
@@ -27469,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>7.458523598487005</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>76.17785428862305</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
-        <v>213.0080510862378</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>151.6662282521509</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>91.17093159161226</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>111.5091262846236</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>213.9149468690341</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>215.1297177180203</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>21.65211723373935</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.5506615794105</v>
+        <v>203.7477984443889</v>
       </c>
     </row>
     <row r="11">
@@ -31758,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31785,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31861,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31870,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,25 +32706,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K23" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M23" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N23" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O23" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
         <v>174.5298045144673</v>
@@ -32733,16 +32733,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -32809,7 +32809,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
         <v>40.31853275515171</v>
@@ -32818,10 +32818,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35418,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>217.3283173608307</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35503,7 +35503,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35977,13 +35977,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>402.8027153709875</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36214,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
@@ -36366,13 +36366,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N23" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36454,7 +36454,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>91.93015837125847</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>152.98832074971</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
@@ -36533,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36694,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36931,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>231.4844522093428</v>
@@ -37159,16 +37159,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O33" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37402,7 +37402,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>91.93015837125802</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q36" t="n">
         <v>152.98832074971</v>
@@ -37624,7 +37624,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37873,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38113,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
